--- a/results/результаты.xlsx
+++ b/results/результаты.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{717C98A4-0C97-471B-AADA-F6F8E161E6FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Пример 1</t>
   </si>
@@ -40,12 +40,15 @@
   <si>
     <t>не число</t>
   </si>
+  <si>
+    <t>Неравномерное разбиение(10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -305,15 +317,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,31 +340,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -369,24 +369,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -702,931 +733,1672 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C5F2A4-724E-4282-9C88-D5606A1115F3}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="21"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="21"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>156805.07139999999</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>126570.1225</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="16">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>148196.8585</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>19.403890970618399</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>125593.34269999999</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>153458.9957</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>13.2382891945106</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>130114.9189</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="16">
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>150724.20819999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>19.4038926034615</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>125304.54949999999</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="12">
         <v>19.4038964868849</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>155107.49729999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>13.2382905603301</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>124260.6437</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="9">
         <v>13.238294088216501</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="16">
         <v>3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>154316.011</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>19.403892612386102</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>124845.76700000001</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="12">
         <v>19.4038964690352</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>151404.31959999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>13.2382900968889</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>126111.66740000001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="9">
         <v>13.238293958284499</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>76923.329400000002</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>19.403891631879599</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>123429.2873</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="12">
         <v>19.4038956448885</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>77479.175900000002</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>13.238289982942799</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>124650.4304</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="9">
         <v>13.2382937242376</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>78265.967799999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>19.403891659487599</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>124217.87360000001</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="12">
         <v>19.403895446455198</v>
       </c>
-      <c r="M7" s="21"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>75979.082299999995</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>13.238289999269201</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>129053.98669999999</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="9">
         <v>13.2382931372195</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="16">
         <v>6</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>77225.185800000007</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>19.403892116950999</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>126273.1746</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="12">
         <v>19.4038956493036</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>77417.266799999998</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>13.238290291299601</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>127048.0548</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="9">
         <v>13.2382932727169</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="16">
         <v>7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>76103.990999999995</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>19.4038922202697</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>127478.538</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="12">
         <v>19.403895356024499</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>77507.859100000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>13.2382896750038</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>125943.0177</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="9">
         <v>13.238293086415499</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="16">
         <v>8</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>77362.767399999997</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>19.403892058694101</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>8</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>64415.277199999997</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="12">
         <v>19.403895700667299</v>
       </c>
-      <c r="M10" s="21"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>78196.573000000004</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>13.2382906001097</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>61164.792800000003</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="9">
         <v>13.2382940086478</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="16">
         <v>9</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>76260.548800000004</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>19.403892235192</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>9</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>63050.844299999997</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="12">
         <v>19.403895939438801</v>
       </c>
-      <c r="M11" s="21"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>80081.019</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>13.238290179714699</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>63734.615299999998</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="9">
         <v>13.238293047307099</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="16">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>76754.322899999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>19.4038924301782</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>10</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>61610.363299999997</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="12">
         <v>19.403896100914199</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>76723.102899999998</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>13.238290204269999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>63834.1414</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="9">
         <v>13.2382934606423</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="16">
         <v>11</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>76662.793900000004</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>19.403892379312499</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>11</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>62621.232400000001</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="12">
         <v>19.4038959706259</v>
       </c>
-      <c r="M13" s="21"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>77440.059399999998</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>13.238290046041</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>12</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>63397.377500000002</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="9">
         <v>13.2382934063679</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="16">
         <v>12</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>76358.949399999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>19.403892138805301</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>12</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>61362.2238</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="12">
         <v>19.403896055038398</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>76429.949500000002</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>13.238290129840999</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>13</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>63534.476600000002</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="9">
         <v>13.2382933864185</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="16">
         <v>13</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>77009.867700000003</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>19.403892158764801</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>13</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>62158.101000000002</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="12">
         <v>19.403895716889402</v>
       </c>
-      <c r="M15" s="21"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>77484.160099999994</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>13.2382904212218</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>14</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>64187.885900000001</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="9">
         <v>13.2382933639804</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="16">
         <v>14</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>77160.483300000007</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>19.403892199637699</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>14</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>62486.695599999999</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="12">
         <v>19.403895585564101</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>75856.012400000007</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>13.238290515833</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>15</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>65225.989600000001</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="9">
         <v>13.2382933249297</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <v>15</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>40750.542300000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>19.403891931135401</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>15</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>63167.612399999998</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="12">
         <v>19.403895455611401</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>78614.407200000001</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>13.238290432402801</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>16</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>64804.418400000002</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="9">
         <v>13.2382932917304</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="16">
         <v>16</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>37584.526400000002</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>19.403892023780099</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>16</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>62704.841999999997</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="12">
         <v>19.4038954862108</v>
       </c>
-      <c r="M18" s="21"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>78559.333799999993</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>13.238290379462599</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>17</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>65705.684500000003</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="9">
         <v>13.2382932221037</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="16">
         <v>17</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>38049.355799999998</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>19.403892117421702</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>17</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>62892.807099999998</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="12">
         <v>19.403895649007701</v>
       </c>
-      <c r="M19" s="21"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>39492.701300000001</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>13.238290185398</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>18</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>66499.390100000004</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="9">
         <v>13.238293470155</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="16">
         <v>18</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>38420.4974</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>19.4038920699019</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>18</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>63629.820699999997</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="12">
         <v>19.4038957824886</v>
       </c>
-      <c r="M20" s="21"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>38297.654699999999</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>13.238290422883001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>19</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>64455.324099999998</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="9">
         <v>13.238293003062401</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="16">
         <v>19</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>37674.512900000002</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>19.403892031247299</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>19</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>63569.5147</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="12">
         <v>19.403895623163798</v>
       </c>
-      <c r="M21" s="21"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>38123.888500000001</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>13.238290274668699</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>20</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>63110.529799999997</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="9">
         <v>13.2382931938832</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="16">
         <v>20</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>37672.114600000001</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>19.403891999571002</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>20</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>62289.796399999999</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="12">
         <v>19.403895716980799</v>
       </c>
-      <c r="M22" s="21"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>38729.099499999997</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>13.2382902412033</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>21</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>62508.211199999998</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="9">
         <v>13.2382932605378</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="17">
         <v>21</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>39267.799299999999</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>19.403891973457</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>21</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>62412.891499999998</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="12">
         <v>19.4038955569766</v>
       </c>
-      <c r="M23" s="21"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="11">
         <v>37743.507400000002</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="15">
         <v>13.2382903305308</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="11">
         <v>22</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="11">
         <v>63914.250200000002</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="19">
         <v>13.2382932013901</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="18">
         <v>22</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="6">
         <v>38579.7736</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="6">
         <v>19.403892067529799</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="7">
         <v>22</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="7">
         <v>62950.109199999999</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="13">
         <v>19.403895625143701</v>
       </c>
-      <c r="M24" s="21"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="20">
+        <v>158248.9939</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20">
+        <v>126402.1611</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20">
+        <v>146514.93410000001</v>
+      </c>
+      <c r="I26" s="20">
+        <v>19.403890970618399</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1</v>
+      </c>
+      <c r="K26" s="20">
+        <v>125709.5328</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20">
+        <v>76766.756299999994</v>
+      </c>
+      <c r="C27" s="20">
+        <v>13.2382904253581</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2</v>
+      </c>
+      <c r="E27" s="20">
+        <v>61521.256600000001</v>
+      </c>
+      <c r="F27" s="20">
+        <v>13.2382930430588</v>
+      </c>
+      <c r="G27" s="20">
+        <v>2</v>
+      </c>
+      <c r="H27" s="20">
+        <v>135872.1532</v>
+      </c>
+      <c r="I27" s="20">
+        <v>19.4038927740385</v>
+      </c>
+      <c r="J27" s="20">
+        <v>2</v>
+      </c>
+      <c r="K27" s="20">
+        <v>62460.594400000002</v>
+      </c>
+      <c r="L27" s="20">
+        <v>19.403896145700099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>3</v>
+      </c>
+      <c r="B28" s="20">
+        <v>38551.358699999997</v>
+      </c>
+      <c r="C28" s="20">
+        <v>13.2382901198695</v>
+      </c>
+      <c r="D28" s="20">
+        <v>3</v>
+      </c>
+      <c r="E28" s="20">
+        <v>62546.239099999999</v>
+      </c>
+      <c r="F28" s="20">
+        <v>13.238293726942199</v>
+      </c>
+      <c r="G28" s="20">
+        <v>3</v>
+      </c>
+      <c r="H28" s="20">
+        <v>36787.141300000003</v>
+      </c>
+      <c r="I28" s="20">
+        <v>19.403892246381599</v>
+      </c>
+      <c r="J28" s="20">
+        <v>3</v>
+      </c>
+      <c r="K28" s="20">
+        <v>61624.953099999999</v>
+      </c>
+      <c r="L28" s="20">
+        <v>19.403895178864801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20">
+        <v>38286.070299999999</v>
+      </c>
+      <c r="C29" s="20">
+        <v>13.2382895762901</v>
+      </c>
+      <c r="D29" s="20">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20">
+        <v>61899.250800000002</v>
+      </c>
+      <c r="F29" s="20">
+        <v>13.238293977905</v>
+      </c>
+      <c r="G29" s="20">
+        <v>4</v>
+      </c>
+      <c r="H29" s="20">
+        <v>36800.160799999998</v>
+      </c>
+      <c r="I29" s="20">
+        <v>19.403891753873001</v>
+      </c>
+      <c r="J29" s="20">
+        <v>4</v>
+      </c>
+      <c r="K29" s="20">
+        <v>62836.703699999998</v>
+      </c>
+      <c r="L29" s="20">
+        <v>19.403894969968899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>5</v>
+      </c>
+      <c r="B30" s="20">
+        <v>38573.373399999997</v>
+      </c>
+      <c r="C30" s="20">
+        <v>13.238289914056599</v>
+      </c>
+      <c r="D30" s="20">
+        <v>5</v>
+      </c>
+      <c r="E30" s="20">
+        <v>65492.763899999998</v>
+      </c>
+      <c r="F30" s="20">
+        <v>13.238293390353</v>
+      </c>
+      <c r="G30" s="20">
+        <v>5</v>
+      </c>
+      <c r="H30" s="20">
+        <v>36893.102599999998</v>
+      </c>
+      <c r="I30" s="20">
+        <v>19.4038915621393</v>
+      </c>
+      <c r="J30" s="20">
+        <v>5</v>
+      </c>
+      <c r="K30" s="20">
+        <v>61790.825299999997</v>
+      </c>
+      <c r="L30" s="20">
+        <v>19.4038950658305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>6</v>
+      </c>
+      <c r="B31" s="20">
+        <v>38067.9058</v>
+      </c>
+      <c r="C31" s="20">
+        <v>13.238289874567901</v>
+      </c>
+      <c r="D31" s="20">
+        <v>6</v>
+      </c>
+      <c r="E31" s="20">
+        <v>60427.168700000002</v>
+      </c>
+      <c r="F31" s="20">
+        <v>13.238293354012599</v>
+      </c>
+      <c r="G31" s="20">
+        <v>6</v>
+      </c>
+      <c r="H31" s="20">
+        <v>36741.753400000001</v>
+      </c>
+      <c r="I31" s="20">
+        <v>19.403891980512</v>
+      </c>
+      <c r="J31" s="20">
+        <v>6</v>
+      </c>
+      <c r="K31" s="20">
+        <v>60922.512900000002</v>
+      </c>
+      <c r="L31" s="20">
+        <v>19.403895481945298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>7</v>
+      </c>
+      <c r="B32" s="20">
+        <v>38550.287400000001</v>
+      </c>
+      <c r="C32" s="20">
+        <v>13.238289870867501</v>
+      </c>
+      <c r="D32" s="20">
+        <v>7</v>
+      </c>
+      <c r="E32" s="20">
+        <v>61490.724499999997</v>
+      </c>
+      <c r="F32" s="20">
+        <v>13.2382932014209</v>
+      </c>
+      <c r="G32" s="20">
+        <v>7</v>
+      </c>
+      <c r="H32" s="20">
+        <v>36795.078800000003</v>
+      </c>
+      <c r="I32" s="20">
+        <v>19.403892360505999</v>
+      </c>
+      <c r="J32" s="20">
+        <v>7</v>
+      </c>
+      <c r="K32" s="20">
+        <v>61423.424899999998</v>
+      </c>
+      <c r="L32" s="20">
+        <v>19.403895586094801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>8</v>
+      </c>
+      <c r="B33" s="20">
+        <v>38336.779699999999</v>
+      </c>
+      <c r="C33" s="20">
+        <v>13.2382901618743</v>
+      </c>
+      <c r="D33" s="20">
+        <v>8</v>
+      </c>
+      <c r="E33" s="20">
+        <v>61778.739800000003</v>
+      </c>
+      <c r="F33" s="20">
+        <v>13.238293605734</v>
+      </c>
+      <c r="G33" s="20">
+        <v>8</v>
+      </c>
+      <c r="H33" s="20">
+        <v>38644.583299999998</v>
+      </c>
+      <c r="I33" s="20">
+        <v>19.403892096381099</v>
+      </c>
+      <c r="J33" s="20">
+        <v>8</v>
+      </c>
+      <c r="K33" s="20">
+        <v>61742.284299999999</v>
+      </c>
+      <c r="L33" s="20">
+        <v>19.403895628529501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>9</v>
+      </c>
+      <c r="B34" s="20">
+        <v>37955.135799999996</v>
+      </c>
+      <c r="C34" s="20">
+        <v>13.2382898531473</v>
+      </c>
+      <c r="D34" s="20">
+        <v>9</v>
+      </c>
+      <c r="E34" s="20">
+        <v>62299.308700000001</v>
+      </c>
+      <c r="F34" s="20">
+        <v>13.2382933527772</v>
+      </c>
+      <c r="G34" s="20">
+        <v>9</v>
+      </c>
+      <c r="H34" s="20">
+        <v>37653.919800000003</v>
+      </c>
+      <c r="I34" s="20">
+        <v>19.4038922245776</v>
+      </c>
+      <c r="J34" s="20">
+        <v>9</v>
+      </c>
+      <c r="K34" s="20">
+        <v>61380.476199999997</v>
+      </c>
+      <c r="L34" s="20">
+        <v>19.403895643989699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>10</v>
+      </c>
+      <c r="B35" s="20">
+        <v>38772.755700000002</v>
+      </c>
+      <c r="C35" s="20">
+        <v>13.2382904848635</v>
+      </c>
+      <c r="D35" s="20">
+        <v>10</v>
+      </c>
+      <c r="E35" s="20">
+        <v>62132.788800000002</v>
+      </c>
+      <c r="F35" s="20">
+        <v>13.2382936911147</v>
+      </c>
+      <c r="G35" s="20">
+        <v>10</v>
+      </c>
+      <c r="H35" s="20">
+        <v>38230.185799999999</v>
+      </c>
+      <c r="I35" s="20">
+        <v>19.403892148721599</v>
+      </c>
+      <c r="J35" s="20">
+        <v>10</v>
+      </c>
+      <c r="K35" s="20">
+        <v>61158.389199999998</v>
+      </c>
+      <c r="L35" s="20">
+        <v>19.4038956468933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>11</v>
+      </c>
+      <c r="B36" s="20">
+        <v>39305.2235</v>
+      </c>
+      <c r="C36" s="20">
+        <v>13.238290073190599</v>
+      </c>
+      <c r="D36" s="20">
+        <v>11</v>
+      </c>
+      <c r="E36" s="20">
+        <v>61994.190999999999</v>
+      </c>
+      <c r="F36" s="20">
+        <v>13.238293011526499</v>
+      </c>
+      <c r="G36" s="20">
+        <v>11</v>
+      </c>
+      <c r="H36" s="20">
+        <v>37667.284399999997</v>
+      </c>
+      <c r="I36" s="20">
+        <v>19.403892134536601</v>
+      </c>
+      <c r="J36" s="20">
+        <v>11</v>
+      </c>
+      <c r="K36" s="20">
+        <v>30317.648799999999</v>
+      </c>
+      <c r="L36" s="20">
+        <v>19.4038960470738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>12</v>
+      </c>
+      <c r="B37" s="20">
+        <v>38959.669500000004</v>
+      </c>
+      <c r="C37" s="20">
+        <v>13.2382898984908</v>
+      </c>
+      <c r="D37" s="20">
+        <v>12</v>
+      </c>
+      <c r="E37" s="20">
+        <v>61333.027300000002</v>
+      </c>
+      <c r="F37" s="20">
+        <v>13.2382932079868</v>
+      </c>
+      <c r="G37" s="20">
+        <v>12</v>
+      </c>
+      <c r="H37" s="20">
+        <v>37491.083400000003</v>
+      </c>
+      <c r="I37" s="20">
+        <v>19.4038921298113</v>
+      </c>
+      <c r="J37" s="20">
+        <v>12</v>
+      </c>
+      <c r="K37" s="20">
+        <v>30078.645100000002</v>
+      </c>
+      <c r="L37" s="20">
+        <v>19.403895937766801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="G38" s="20">
+        <v>13</v>
+      </c>
+      <c r="H38" s="20">
+        <v>37455.983099999998</v>
+      </c>
+      <c r="I38" s="20">
+        <v>19.403892130384701</v>
+      </c>
+      <c r="J38" s="20">
+        <v>13</v>
+      </c>
+      <c r="K38" s="20">
+        <v>30947.411899999999</v>
+      </c>
+      <c r="L38" s="20">
+        <v>19.403895813305301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="G39" s="20">
+        <v>14</v>
+      </c>
+      <c r="H39" s="20">
+        <v>40363.292600000001</v>
+      </c>
+      <c r="I39" s="20">
+        <v>19.4038921589365</v>
+      </c>
+      <c r="J39" s="20">
+        <v>14</v>
+      </c>
+      <c r="K39" s="20">
+        <v>29836.563999999998</v>
+      </c>
+      <c r="L39" s="20">
+        <v>19.403895684388001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="G40" s="20">
+        <v>15</v>
+      </c>
+      <c r="H40" s="20">
+        <v>37427.715400000001</v>
+      </c>
+      <c r="I40" s="20">
+        <v>19.403892038755501</v>
+      </c>
+      <c r="J40" s="20">
+        <v>15</v>
+      </c>
+      <c r="K40" s="20">
+        <v>31267.490300000001</v>
+      </c>
+      <c r="L40" s="20">
+        <v>19.403895551962201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="G41" s="20">
+        <v>16</v>
+      </c>
+      <c r="H41" s="20">
+        <v>38300.374600000003</v>
+      </c>
+      <c r="I41" s="20">
+        <v>19.403892109960299</v>
+      </c>
+      <c r="J41" s="20">
+        <v>16</v>
+      </c>
+      <c r="K41" s="20">
+        <v>31950.8076</v>
+      </c>
+      <c r="L41" s="20">
+        <v>19.403895580623299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="G42" s="20">
+        <v>17</v>
+      </c>
+      <c r="H42" s="20">
+        <v>37981.055899999999</v>
+      </c>
+      <c r="I42" s="20">
+        <v>19.403892187975099</v>
+      </c>
+      <c r="J42" s="20">
+        <v>17</v>
+      </c>
+      <c r="K42" s="20">
+        <v>33058.501400000001</v>
+      </c>
+      <c r="L42" s="20">
+        <v>19.403895737302399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="G43" s="20">
+        <v>18</v>
+      </c>
+      <c r="H43" s="20">
+        <v>37328.246200000001</v>
+      </c>
+      <c r="I43" s="20">
+        <v>19.403892126901201</v>
+      </c>
+      <c r="J43" s="20">
+        <v>18</v>
+      </c>
+      <c r="K43" s="20">
+        <v>32100.162799999998</v>
+      </c>
+      <c r="L43" s="20">
+        <v>19.403895873149398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="G44" s="20">
+        <v>19</v>
+      </c>
+      <c r="H44" s="20">
+        <v>37864.138899999998</v>
+      </c>
+      <c r="I44" s="20">
+        <v>19.403892077684599</v>
+      </c>
+      <c r="J44" s="20">
+        <v>19</v>
+      </c>
+      <c r="K44" s="20">
+        <v>32684.1014</v>
+      </c>
+      <c r="L44" s="20">
+        <v>19.403895712148199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="G45" s="20">
+        <v>20</v>
+      </c>
+      <c r="H45" s="20">
+        <v>38067.518499999998</v>
+      </c>
+      <c r="I45" s="20">
+        <v>19.403892037696799</v>
+      </c>
+      <c r="J45" s="20">
+        <v>20</v>
+      </c>
+      <c r="K45" s="20">
+        <v>29850.250599999999</v>
+      </c>
+      <c r="L45" s="20">
+        <v>19.403895804866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="G46" s="20">
+        <v>21</v>
+      </c>
+      <c r="H46" s="20">
+        <v>38492.647499999999</v>
+      </c>
+      <c r="I46" s="20">
+        <v>19.403892004974399</v>
+      </c>
+      <c r="J46" s="20">
+        <v>21</v>
+      </c>
+      <c r="K46" s="20">
+        <v>30449.490600000001</v>
+      </c>
+      <c r="L46" s="20">
+        <v>19.403895641459499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="G47" s="20">
+        <v>22</v>
+      </c>
+      <c r="H47" s="20">
+        <v>38786.245000000003</v>
+      </c>
+      <c r="I47" s="20">
+        <v>19.4038920946738</v>
+      </c>
+      <c r="J47" s="20">
+        <v>22</v>
+      </c>
+      <c r="K47" s="20">
+        <v>32422.5864</v>
+      </c>
+      <c r="L47" s="20">
+        <v>19.403895707184301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A25:L25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>

--- a/results/результаты.xlsx
+++ b/results/результаты.xlsx
@@ -737,7 +737,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:L47"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,8 +2129,24 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="20">
+        <v>13</v>
+      </c>
+      <c r="B38" s="20">
+        <v>38956.765500000001</v>
+      </c>
+      <c r="C38" s="20">
+        <v>13.238289981580699</v>
+      </c>
+      <c r="D38" s="20">
+        <v>13</v>
+      </c>
+      <c r="E38" s="20">
+        <v>65300.394999999997</v>
+      </c>
+      <c r="F38" s="20">
+        <v>13.238293386543999</v>
+      </c>
       <c r="G38" s="20">
         <v>13</v>
       </c>
@@ -2151,9 +2167,24 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="20">
+        <v>14</v>
+      </c>
+      <c r="B39" s="20">
+        <v>38753.594400000002</v>
+      </c>
+      <c r="C39" s="20">
+        <v>13.238290283178699</v>
+      </c>
+      <c r="D39" s="20">
+        <v>14</v>
+      </c>
+      <c r="E39" s="20">
+        <v>63899.597399999999</v>
+      </c>
+      <c r="F39" s="20">
+        <v>13.2382933711775</v>
+      </c>
       <c r="G39" s="20">
         <v>14</v>
       </c>
@@ -2174,9 +2205,24 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="20">
+        <v>15</v>
+      </c>
+      <c r="B40" s="20">
+        <v>38871.246099999997</v>
+      </c>
+      <c r="C40" s="20">
+        <v>13.2382902237675</v>
+      </c>
+      <c r="D40" s="20">
+        <v>15</v>
+      </c>
+      <c r="E40" s="20">
+        <v>31937.428899999999</v>
+      </c>
+      <c r="F40" s="20">
+        <v>13.238293517457601</v>
+      </c>
       <c r="G40" s="20">
         <v>15</v>
       </c>
@@ -2197,9 +2243,24 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="20">
+        <v>16</v>
+      </c>
+      <c r="B41" s="20">
+        <v>41407.166499999999</v>
+      </c>
+      <c r="C41" s="20">
+        <v>13.2382903419931</v>
+      </c>
+      <c r="D41" s="20">
+        <v>16</v>
+      </c>
+      <c r="E41" s="20">
+        <v>31089.7624</v>
+      </c>
+      <c r="F41" s="20">
+        <v>13.2382934668146</v>
+      </c>
       <c r="G41" s="20">
         <v>16</v>
       </c>
@@ -2220,9 +2281,24 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="20">
+        <v>17</v>
+      </c>
+      <c r="B42" s="20">
+        <v>39173.195500000002</v>
+      </c>
+      <c r="C42" s="20">
+        <v>13.2382902782113</v>
+      </c>
+      <c r="D42" s="20">
+        <v>17</v>
+      </c>
+      <c r="E42" s="20">
+        <v>30959.860400000001</v>
+      </c>
+      <c r="F42" s="20">
+        <v>13.238293271823</v>
+      </c>
       <c r="G42" s="20">
         <v>17</v>
       </c>
@@ -2243,9 +2319,24 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="20">
+        <v>18</v>
+      </c>
+      <c r="B43" s="20">
+        <v>38128.739699999998</v>
+      </c>
+      <c r="C43" s="20">
+        <v>13.238290383227801</v>
+      </c>
+      <c r="D43" s="20">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20">
+        <v>31174.160800000001</v>
+      </c>
+      <c r="F43" s="20">
+        <v>13.238293344150099</v>
+      </c>
       <c r="G43" s="20">
         <v>18</v>
       </c>
@@ -2266,9 +2357,24 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="20">
+        <v>19</v>
+      </c>
+      <c r="B44" s="20">
+        <v>37856.9228</v>
+      </c>
+      <c r="C44" s="20">
+        <v>13.238290195573899</v>
+      </c>
+      <c r="D44" s="20">
+        <v>19</v>
+      </c>
+      <c r="E44" s="20">
+        <v>30824.492999999999</v>
+      </c>
+      <c r="F44" s="20">
+        <v>13.2382934462925</v>
+      </c>
       <c r="G44" s="20">
         <v>19</v>
       </c>
@@ -2289,9 +2395,24 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="20">
+        <v>20</v>
+      </c>
+      <c r="B45" s="20">
+        <v>38986.316200000001</v>
+      </c>
+      <c r="C45" s="20">
+        <v>13.2382904313405</v>
+      </c>
+      <c r="D45" s="20">
+        <v>20</v>
+      </c>
+      <c r="E45" s="20">
+        <v>30937.589800000002</v>
+      </c>
+      <c r="F45" s="20">
+        <v>13.238293226407199</v>
+      </c>
       <c r="G45" s="20">
         <v>20</v>
       </c>
@@ -2312,9 +2433,24 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="20">
+        <v>21</v>
+      </c>
+      <c r="B46" s="20">
+        <v>38250.850400000003</v>
+      </c>
+      <c r="C46" s="20">
+        <v>13.2382902817555</v>
+      </c>
+      <c r="D46" s="20">
+        <v>21</v>
+      </c>
+      <c r="E46" s="20">
+        <v>30758.717400000001</v>
+      </c>
+      <c r="F46" s="20">
+        <v>13.238293396560399</v>
+      </c>
       <c r="G46" s="20">
         <v>21</v>
       </c>
@@ -2335,9 +2471,24 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="20">
+        <v>22</v>
+      </c>
+      <c r="B47" s="20">
+        <v>37817.569000000003</v>
+      </c>
+      <c r="C47" s="20">
+        <v>13.2382902471796</v>
+      </c>
+      <c r="D47" s="20">
+        <v>22</v>
+      </c>
+      <c r="E47" s="20">
+        <v>32072.4719</v>
+      </c>
+      <c r="F47" s="20">
+        <v>13.2382932101869</v>
+      </c>
       <c r="G47" s="20">
         <v>22</v>
       </c>

--- a/results/результаты.xlsx
+++ b/results/результаты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Пример 1</t>
   </si>
@@ -43,12 +43,18 @@
   <si>
     <t>Неравномерное разбиение(10)</t>
   </si>
+  <si>
+    <t>Неравномерное разбиение(10) - версия 2</t>
+  </si>
+  <si>
+    <t>прогон 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,15 +65,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -330,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,11 +377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,45 +753,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="33" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="34"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,20 +1653,20 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -2470,7 +2466,7 @@
         <v>19.403895641459499</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>22</v>
       </c>
@@ -2509,46 +2505,953 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
+      <c r="A48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>1</v>
+      </c>
+      <c r="B49" s="20">
+        <v>157614.82879999999</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>1</v>
+      </c>
+      <c r="E49" s="20">
+        <v>125810.29829999999</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="20">
+        <v>1</v>
+      </c>
+      <c r="H49" s="20">
+        <v>153395.52650000001</v>
+      </c>
+      <c r="I49" s="20">
+        <v>19.403890970618399</v>
+      </c>
+      <c r="J49" s="20">
+        <v>1</v>
+      </c>
+      <c r="K49" s="20">
+        <v>123789.40489999999</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>2</v>
+      </c>
+      <c r="B50" s="20">
+        <v>9742.6301000000003</v>
+      </c>
+      <c r="C50" s="20">
+        <v>13.238290229475099</v>
+      </c>
+      <c r="D50" s="20">
+        <v>2</v>
+      </c>
+      <c r="E50" s="20">
+        <v>7659.2280000000001</v>
+      </c>
+      <c r="F50" s="20">
+        <v>13.2382933949705</v>
+      </c>
+      <c r="G50" s="20">
+        <v>2</v>
+      </c>
+      <c r="H50" s="20">
+        <v>17474.2565</v>
+      </c>
+      <c r="I50" s="20">
+        <v>19.4038925663885</v>
+      </c>
+      <c r="J50" s="20">
+        <v>2</v>
+      </c>
+      <c r="K50" s="20">
+        <v>7779.5128000000004</v>
+      </c>
+      <c r="L50" s="20">
+        <v>19.403896561023799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>3</v>
+      </c>
+      <c r="B51" s="20">
+        <v>9407.8071999999993</v>
+      </c>
+      <c r="C51" s="20">
+        <v>13.2382903592445</v>
+      </c>
+      <c r="D51" s="20">
+        <v>3</v>
+      </c>
+      <c r="E51" s="20">
+        <v>15294.632100000001</v>
+      </c>
+      <c r="F51" s="20">
+        <v>13.2382936075178</v>
+      </c>
+      <c r="G51" s="20">
+        <v>3</v>
+      </c>
+      <c r="H51" s="20">
+        <v>9168.8032000000003</v>
+      </c>
+      <c r="I51" s="20">
+        <v>19.4038925577747</v>
+      </c>
+      <c r="J51" s="20">
+        <v>3</v>
+      </c>
+      <c r="K51" s="20">
+        <v>15618.668799999999</v>
+      </c>
+      <c r="L51" s="20">
+        <v>19.403895702766501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>4</v>
+      </c>
+      <c r="B52" s="20">
+        <v>9370.3094000000001</v>
+      </c>
+      <c r="C52" s="20">
+        <v>13.238290228351399</v>
+      </c>
+      <c r="D52" s="20">
+        <v>4</v>
+      </c>
+      <c r="E52" s="20">
+        <v>15679.199500000001</v>
+      </c>
+      <c r="F52" s="20">
+        <v>13.238293891708</v>
+      </c>
+      <c r="G52" s="20">
+        <v>4</v>
+      </c>
+      <c r="H52" s="20">
+        <v>9600.3402000000006</v>
+      </c>
+      <c r="I52" s="20">
+        <v>19.403891577891201</v>
+      </c>
+      <c r="J52" s="20">
+        <v>4</v>
+      </c>
+      <c r="K52" s="20">
+        <v>15187.207700000001</v>
+      </c>
+      <c r="L52" s="20">
+        <v>19.403895671876501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>5</v>
+      </c>
+      <c r="B53" s="20">
+        <v>9367.2214000000004</v>
+      </c>
+      <c r="C53" s="20">
+        <v>13.2382896687336</v>
+      </c>
+      <c r="D53" s="20">
+        <v>5</v>
+      </c>
+      <c r="E53" s="20">
+        <v>15702.8691</v>
+      </c>
+      <c r="F53" s="20">
+        <v>13.2382935159897</v>
+      </c>
+      <c r="G53" s="20">
+        <v>5</v>
+      </c>
+      <c r="H53" s="20">
+        <v>9411.4114000000009</v>
+      </c>
+      <c r="I53" s="20">
+        <v>19.403891610932899</v>
+      </c>
+      <c r="J53" s="20">
+        <v>5</v>
+      </c>
+      <c r="K53" s="20">
+        <v>15391.4362</v>
+      </c>
+      <c r="L53" s="20">
+        <v>19.403895470738199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>6</v>
+      </c>
+      <c r="B54" s="20">
+        <v>9345.6221000000005</v>
+      </c>
+      <c r="C54" s="20">
+        <v>13.2382897506105</v>
+      </c>
+      <c r="D54" s="20">
+        <v>6</v>
+      </c>
+      <c r="E54" s="20">
+        <v>15642.5589</v>
+      </c>
+      <c r="F54" s="20">
+        <v>13.238293261555601</v>
+      </c>
+      <c r="G54" s="20">
+        <v>6</v>
+      </c>
+      <c r="H54" s="20">
+        <v>9251.6746000000003</v>
+      </c>
+      <c r="I54" s="20">
+        <v>19.403892076789301</v>
+      </c>
+      <c r="J54" s="20">
+        <v>6</v>
+      </c>
+      <c r="K54" s="20">
+        <v>15704.936900000001</v>
+      </c>
+      <c r="L54" s="20">
+        <v>19.403895669388302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>7</v>
+      </c>
+      <c r="B55" s="20">
+        <v>19543.8037</v>
+      </c>
+      <c r="C55" s="20">
+        <v>13.238290494849201</v>
+      </c>
+      <c r="D55" s="20">
+        <v>7</v>
+      </c>
+      <c r="E55" s="20">
+        <v>15702.690699999999</v>
+      </c>
+      <c r="F55" s="20">
+        <v>13.2382933709696</v>
+      </c>
+      <c r="G55" s="20">
+        <v>7</v>
+      </c>
+      <c r="H55" s="20">
+        <v>18405.3511</v>
+      </c>
+      <c r="I55" s="20">
+        <v>19.403892214223301</v>
+      </c>
+      <c r="J55" s="20">
+        <v>7</v>
+      </c>
+      <c r="K55" s="20">
+        <v>15952.4252</v>
+      </c>
+      <c r="L55" s="20">
+        <v>19.403895726565199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>8</v>
+      </c>
+      <c r="B56" s="20">
+        <v>18831.6031</v>
+      </c>
+      <c r="C56" s="20">
+        <v>13.238289911018899</v>
+      </c>
+      <c r="D56" s="20">
+        <v>8</v>
+      </c>
+      <c r="E56" s="20">
+        <v>15366.0478</v>
+      </c>
+      <c r="F56" s="20">
+        <v>13.238293163724199</v>
+      </c>
+      <c r="G56" s="20">
+        <v>8</v>
+      </c>
+      <c r="H56" s="20">
+        <v>18561.648000000001</v>
+      </c>
+      <c r="I56" s="20">
+        <v>19.403892055240799</v>
+      </c>
+      <c r="J56" s="20">
+        <v>8</v>
+      </c>
+      <c r="K56" s="20">
+        <v>15522.0134</v>
+      </c>
+      <c r="L56" s="20">
+        <v>19.403895707571699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>9</v>
+      </c>
+      <c r="B57" s="20">
+        <v>18762.176299999999</v>
+      </c>
+      <c r="C57" s="20">
+        <v>13.2382905715112</v>
+      </c>
+      <c r="D57" s="20">
+        <v>9</v>
+      </c>
+      <c r="E57" s="20">
+        <v>15787.156300000001</v>
+      </c>
+      <c r="F57" s="20">
+        <v>13.2382940658421</v>
+      </c>
+      <c r="G57" s="20">
+        <v>9</v>
+      </c>
+      <c r="H57" s="20">
+        <v>19092.242200000001</v>
+      </c>
+      <c r="I57" s="20">
+        <v>19.403892234419502</v>
+      </c>
+      <c r="J57" s="20">
+        <v>9</v>
+      </c>
+      <c r="K57" s="20">
+        <v>15310.4185</v>
+      </c>
+      <c r="L57" s="20">
+        <v>19.4038959410072</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>10</v>
+      </c>
+      <c r="B58" s="20">
+        <v>18742.4738</v>
+      </c>
+      <c r="C58" s="20">
+        <v>13.2382901582282</v>
+      </c>
+      <c r="D58" s="20">
+        <v>10</v>
+      </c>
+      <c r="E58" s="20">
+        <v>15359.380999999999</v>
+      </c>
+      <c r="F58" s="20">
+        <v>13.238293090279599</v>
+      </c>
+      <c r="G58" s="20">
+        <v>10</v>
+      </c>
+      <c r="H58" s="20">
+        <v>18896.491099999999</v>
+      </c>
+      <c r="I58" s="20">
+        <v>19.403892432071501</v>
+      </c>
+      <c r="J58" s="20">
+        <v>10</v>
+      </c>
+      <c r="K58" s="20">
+        <v>15444.438099999999</v>
+      </c>
+      <c r="L58" s="20">
+        <v>19.403896097138599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>11</v>
+      </c>
+      <c r="B59" s="20">
+        <v>19137.486199999999</v>
+      </c>
+      <c r="C59" s="20">
+        <v>13.2382901888368</v>
+      </c>
+      <c r="D59" s="20">
+        <v>11</v>
+      </c>
+      <c r="E59" s="20">
+        <v>15457.981299999999</v>
+      </c>
+      <c r="F59" s="20">
+        <v>13.2382934915215</v>
+      </c>
+      <c r="G59" s="20">
+        <v>11</v>
+      </c>
+      <c r="H59" s="20">
+        <v>19807.3092</v>
+      </c>
+      <c r="I59" s="20">
+        <v>19.403892383867898</v>
+      </c>
+      <c r="J59" s="20">
+        <v>11</v>
+      </c>
+      <c r="K59" s="20">
+        <v>15805.534</v>
+      </c>
+      <c r="L59" s="20">
+        <v>19.4038959615267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>12</v>
+      </c>
+      <c r="B60" s="20">
+        <v>19355.481400000001</v>
+      </c>
+      <c r="C60" s="20">
+        <v>13.2382900358607</v>
+      </c>
+      <c r="D60" s="20">
+        <v>12</v>
+      </c>
+      <c r="E60" s="20">
+        <v>15507.861199999999</v>
+      </c>
+      <c r="F60" s="20">
+        <v>13.238293426750801</v>
+      </c>
+      <c r="G60" s="20">
+        <v>12</v>
+      </c>
+      <c r="H60" s="20">
+        <v>19054.274099999999</v>
+      </c>
+      <c r="I60" s="20">
+        <v>19.403892145975998</v>
+      </c>
+      <c r="J60" s="20">
+        <v>12</v>
+      </c>
+      <c r="K60" s="20">
+        <v>15721.756600000001</v>
+      </c>
+      <c r="L60" s="20">
+        <v>19.4038960407064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>1</v>
+      </c>
+      <c r="B62" s="20">
+        <v>153915.61900000001</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>1</v>
+      </c>
+      <c r="E62" s="20">
+        <v>128670.02740000001</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
+      <c r="H62" s="20">
+        <v>153944.0098</v>
+      </c>
+      <c r="I62" s="20">
+        <v>19.403890970618399</v>
+      </c>
+      <c r="J62" s="20">
+        <v>1</v>
+      </c>
+      <c r="K62" s="20">
+        <v>125167.5609</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>2</v>
+      </c>
+      <c r="B63" s="20">
+        <v>9556.9313000000002</v>
+      </c>
+      <c r="C63" s="20">
+        <v>13.238290229475099</v>
+      </c>
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63" s="20">
+        <v>8211.0229999999992</v>
+      </c>
+      <c r="F63" s="20">
+        <v>13.2382933949705</v>
+      </c>
+      <c r="G63" s="20">
+        <v>2</v>
+      </c>
+      <c r="H63" s="20">
+        <v>9683.1044000000002</v>
+      </c>
+      <c r="I63" s="20">
+        <v>19.4038925663885</v>
+      </c>
+      <c r="J63" s="20">
+        <v>2</v>
+      </c>
+      <c r="K63" s="20">
+        <v>7862.8319000000001</v>
+      </c>
+      <c r="L63" s="20">
+        <v>19.403896561023799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>3</v>
+      </c>
+      <c r="B64" s="20">
+        <v>9475.8261999999995</v>
+      </c>
+      <c r="C64" s="20">
+        <v>13.2382903592445</v>
+      </c>
+      <c r="D64" s="20">
+        <v>3</v>
+      </c>
+      <c r="E64" s="20">
+        <v>16006.426100000001</v>
+      </c>
+      <c r="F64" s="20">
+        <v>13.2382936075178</v>
+      </c>
+      <c r="G64" s="20">
+        <v>3</v>
+      </c>
+      <c r="H64" s="20">
+        <v>9619.2311000000009</v>
+      </c>
+      <c r="I64" s="20">
+        <v>19.4038925577747</v>
+      </c>
+      <c r="J64" s="20">
+        <v>3</v>
+      </c>
+      <c r="K64" s="20">
+        <v>15737.216200000001</v>
+      </c>
+      <c r="L64" s="20">
+        <v>19.403895702766501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>4</v>
+      </c>
+      <c r="B65" s="20">
+        <v>10078.109899999999</v>
+      </c>
+      <c r="C65" s="20">
+        <v>13.238290228351399</v>
+      </c>
+      <c r="D65" s="20">
+        <v>4</v>
+      </c>
+      <c r="E65" s="20">
+        <v>15700.9084</v>
+      </c>
+      <c r="F65" s="20">
+        <v>13.238293891708</v>
+      </c>
+      <c r="G65" s="20">
+        <v>4</v>
+      </c>
+      <c r="H65" s="20">
+        <v>9591.5658000000003</v>
+      </c>
+      <c r="I65" s="20">
+        <v>19.403891577891201</v>
+      </c>
+      <c r="J65" s="20">
+        <v>4</v>
+      </c>
+      <c r="K65" s="20">
+        <v>15806.386</v>
+      </c>
+      <c r="L65" s="20">
+        <v>19.403895671876501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
+        <v>5</v>
+      </c>
+      <c r="B66" s="20">
+        <v>9366.7803000000004</v>
+      </c>
+      <c r="C66" s="20">
+        <v>13.2382896687336</v>
+      </c>
+      <c r="D66" s="20">
+        <v>5</v>
+      </c>
+      <c r="E66" s="20">
+        <v>16255.3418</v>
+      </c>
+      <c r="F66" s="20">
+        <v>13.2382935159897</v>
+      </c>
+      <c r="G66" s="20">
+        <v>5</v>
+      </c>
+      <c r="H66" s="20">
+        <v>9745.0040000000008</v>
+      </c>
+      <c r="I66" s="20">
+        <v>19.403891610932899</v>
+      </c>
+      <c r="J66" s="20">
+        <v>5</v>
+      </c>
+      <c r="K66" s="20">
+        <v>15643.5584</v>
+      </c>
+      <c r="L66" s="20">
+        <v>19.403895470738199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
+        <v>6</v>
+      </c>
+      <c r="B67" s="20">
+        <v>9377.5650000000005</v>
+      </c>
+      <c r="C67" s="20">
+        <v>13.2382897506105</v>
+      </c>
+      <c r="D67" s="20">
+        <v>6</v>
+      </c>
+      <c r="E67" s="20">
+        <v>15995.3297</v>
+      </c>
+      <c r="F67" s="20">
+        <v>13.238293261555601</v>
+      </c>
+      <c r="G67" s="20">
+        <v>6</v>
+      </c>
+      <c r="H67" s="20">
+        <v>9679.6358</v>
+      </c>
+      <c r="I67" s="20">
+        <v>19.403892076789301</v>
+      </c>
+      <c r="J67" s="20">
+        <v>6</v>
+      </c>
+      <c r="K67" s="20">
+        <v>15731.7402</v>
+      </c>
+      <c r="L67" s="20">
+        <v>19.403895669388302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="20">
+        <v>7</v>
+      </c>
+      <c r="B68" s="20">
+        <v>19268.047999999999</v>
+      </c>
+      <c r="C68" s="20">
+        <v>13.238290494849201</v>
+      </c>
+      <c r="D68" s="20">
+        <v>7</v>
+      </c>
+      <c r="E68" s="20">
+        <v>16021.665300000001</v>
+      </c>
+      <c r="F68" s="20">
+        <v>13.2382933709696</v>
+      </c>
+      <c r="G68" s="20">
+        <v>7</v>
+      </c>
+      <c r="H68" s="20">
+        <v>19145.194200000002</v>
+      </c>
+      <c r="I68" s="20">
+        <v>19.403892214223301</v>
+      </c>
+      <c r="J68" s="20">
+        <v>7</v>
+      </c>
+      <c r="K68" s="20">
+        <v>15846.8997</v>
+      </c>
+      <c r="L68" s="20">
+        <v>19.403895726565199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
+        <v>8</v>
+      </c>
+      <c r="B69" s="20">
+        <v>18716.5075</v>
+      </c>
+      <c r="C69" s="20">
+        <v>13.238289911018899</v>
+      </c>
+      <c r="D69" s="20">
+        <v>8</v>
+      </c>
+      <c r="E69" s="20">
+        <v>15908.922200000001</v>
+      </c>
+      <c r="F69" s="20">
+        <v>13.238293163724199</v>
+      </c>
+      <c r="G69" s="20">
+        <v>8</v>
+      </c>
+      <c r="H69" s="20">
+        <v>19431.2006</v>
+      </c>
+      <c r="I69" s="20">
+        <v>19.403892055240799</v>
+      </c>
+      <c r="J69" s="20">
+        <v>8</v>
+      </c>
+      <c r="K69" s="20">
+        <v>16144.8933</v>
+      </c>
+      <c r="L69" s="20">
+        <v>19.403895707571699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>9</v>
+      </c>
+      <c r="B70" s="20">
+        <v>19302.607</v>
+      </c>
+      <c r="C70" s="20">
+        <v>13.2382905715112</v>
+      </c>
+      <c r="D70" s="20">
+        <v>9</v>
+      </c>
+      <c r="E70" s="20">
+        <v>15942.723</v>
+      </c>
+      <c r="F70" s="20">
+        <v>13.2382940658421</v>
+      </c>
+      <c r="G70" s="20">
+        <v>9</v>
+      </c>
+      <c r="H70" s="20">
+        <v>19448.176599999999</v>
+      </c>
+      <c r="I70" s="20">
+        <v>19.403892234419502</v>
+      </c>
+      <c r="J70" s="20">
+        <v>9</v>
+      </c>
+      <c r="K70" s="20">
+        <v>15641.7767</v>
+      </c>
+      <c r="L70" s="20">
+        <v>19.4038959410072</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
+        <v>10</v>
+      </c>
+      <c r="B71" s="20">
+        <v>19096.627</v>
+      </c>
+      <c r="C71" s="20">
+        <v>13.2382901582282</v>
+      </c>
+      <c r="D71" s="20">
+        <v>10</v>
+      </c>
+      <c r="E71" s="20">
+        <v>16296.5087</v>
+      </c>
+      <c r="F71" s="20">
+        <v>13.238293090279599</v>
+      </c>
+      <c r="G71" s="20">
+        <v>10</v>
+      </c>
+      <c r="H71" s="20">
+        <v>19534.346000000001</v>
+      </c>
+      <c r="I71" s="20">
+        <v>19.403892432071501</v>
+      </c>
+      <c r="J71" s="20">
+        <v>10</v>
+      </c>
+      <c r="K71" s="20">
+        <v>15653.9845</v>
+      </c>
+      <c r="L71" s="20">
+        <v>19.403896097138599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
+        <v>11</v>
+      </c>
+      <c r="B72" s="20">
+        <v>18749.238399999998</v>
+      </c>
+      <c r="C72" s="20">
+        <v>13.2382901888368</v>
+      </c>
+      <c r="D72" s="20">
+        <v>11</v>
+      </c>
+      <c r="E72" s="20">
+        <v>16290.281999999999</v>
+      </c>
+      <c r="F72" s="20">
+        <v>13.2382934915215</v>
+      </c>
+      <c r="G72" s="20">
+        <v>11</v>
+      </c>
+      <c r="H72" s="20">
+        <v>19602.4424</v>
+      </c>
+      <c r="I72" s="20">
+        <v>19.403892383867898</v>
+      </c>
+      <c r="J72" s="20">
+        <v>11</v>
+      </c>
+      <c r="K72" s="20">
+        <v>15694.165199999999</v>
+      </c>
+      <c r="L72" s="20">
+        <v>19.4038959615267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
+        <v>12</v>
+      </c>
+      <c r="B73" s="20">
+        <v>19177.622500000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>13.2382900358607</v>
+      </c>
+      <c r="D73" s="20">
+        <v>12</v>
+      </c>
+      <c r="E73" s="20">
+        <v>15873.6386</v>
+      </c>
+      <c r="F73" s="20">
+        <v>13.238293426750801</v>
+      </c>
+      <c r="G73" s="20">
+        <v>12</v>
+      </c>
+      <c r="H73" s="20">
+        <v>20244.5507</v>
+      </c>
+      <c r="I73" s="20">
+        <v>19.403892145975998</v>
+      </c>
+      <c r="J73" s="20">
+        <v>12</v>
+      </c>
+      <c r="K73" s="20">
+        <v>15446.2428</v>
+      </c>
+      <c r="L73" s="20">
+        <v>19.4038960407064</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A61:L61"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>

--- a/results/результаты.xlsx
+++ b/results/результаты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Пример 1</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>прогон 2</t>
+  </si>
+  <si>
+    <t>пример 1(рекурсия, прямоугольники)</t>
+  </si>
+  <si>
+    <t>(трапеции)</t>
   </si>
 </sst>
 </file>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +758,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -770,8 +776,14 @@
       <c r="K1" s="24"/>
       <c r="L1" s="33"/>
       <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -794,7 +806,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -832,8 +844,26 @@
         <v>4</v>
       </c>
       <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N3" s="20">
+        <v>1</v>
+      </c>
+      <c r="O3" s="20">
+        <v>153378.5042</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <v>1</v>
+      </c>
+      <c r="S3" s="20">
+        <v>125883.15489999999</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -871,8 +901,26 @@
         <v>19.4038964868849</v>
       </c>
       <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="20">
+        <v>2</v>
+      </c>
+      <c r="O4" s="20">
+        <v>154790.4724</v>
+      </c>
+      <c r="P4" s="20">
+        <v>13.2382891945106</v>
+      </c>
+      <c r="R4" s="20">
+        <v>2</v>
+      </c>
+      <c r="S4" s="20">
+        <v>124718.308</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -910,8 +958,26 @@
         <v>19.4038964690352</v>
       </c>
       <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="20">
+        <v>3</v>
+      </c>
+      <c r="O5" s="20">
+        <v>153265.67430000001</v>
+      </c>
+      <c r="P5" s="20">
+        <v>13.2382905603301</v>
+      </c>
+      <c r="R5" s="20">
+        <v>3</v>
+      </c>
+      <c r="S5" s="20">
+        <v>124323.42539999999</v>
+      </c>
+      <c r="T5" s="20">
+        <v>13.238294088216501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -949,8 +1015,26 @@
         <v>19.4038956448885</v>
       </c>
       <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="20">
+        <v>4</v>
+      </c>
+      <c r="O6" s="20">
+        <v>153010.18599999999</v>
+      </c>
+      <c r="P6" s="20">
+        <v>13.2382900968889</v>
+      </c>
+      <c r="R6" s="20">
+        <v>4</v>
+      </c>
+      <c r="S6" s="20">
+        <v>124832.9157</v>
+      </c>
+      <c r="T6" s="20">
+        <v>13.238293958284499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -988,8 +1072,26 @@
         <v>19.403895446455198</v>
       </c>
       <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="20">
+        <v>5</v>
+      </c>
+      <c r="O7" s="20">
+        <v>76847.641300000003</v>
+      </c>
+      <c r="P7" s="20">
+        <v>13.238289982942799</v>
+      </c>
+      <c r="R7" s="20">
+        <v>5</v>
+      </c>
+      <c r="S7" s="20">
+        <v>126363.868</v>
+      </c>
+      <c r="T7" s="20">
+        <v>13.2382937242376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1027,8 +1129,26 @@
         <v>19.4038956493036</v>
       </c>
       <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="20">
+        <v>6</v>
+      </c>
+      <c r="O8" s="20">
+        <v>76790.497399999993</v>
+      </c>
+      <c r="P8" s="20">
+        <v>13.238289999269201</v>
+      </c>
+      <c r="R8" s="20">
+        <v>6</v>
+      </c>
+      <c r="S8" s="20">
+        <v>126297.5401</v>
+      </c>
+      <c r="T8" s="20">
+        <v>13.2382931372195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1066,8 +1186,26 @@
         <v>19.403895356024499</v>
       </c>
       <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="20">
+        <v>7</v>
+      </c>
+      <c r="O9" s="20">
+        <v>78043.411600000007</v>
+      </c>
+      <c r="P9" s="20">
+        <v>13.238290291299601</v>
+      </c>
+      <c r="R9" s="20">
+        <v>7</v>
+      </c>
+      <c r="S9" s="20">
+        <v>126140.3659</v>
+      </c>
+      <c r="T9" s="20">
+        <v>13.2382932727169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1105,8 +1243,26 @@
         <v>19.403895700667299</v>
       </c>
       <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="20">
+        <v>8</v>
+      </c>
+      <c r="O10" s="20">
+        <v>77509.4087</v>
+      </c>
+      <c r="P10" s="20">
+        <v>13.2382896750038</v>
+      </c>
+      <c r="R10" s="20">
+        <v>8</v>
+      </c>
+      <c r="S10" s="20">
+        <v>125660.8268</v>
+      </c>
+      <c r="T10" s="20">
+        <v>13.238293086415499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1144,8 +1300,26 @@
         <v>19.403895939438801</v>
       </c>
       <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="20">
+        <v>9</v>
+      </c>
+      <c r="O11" s="20">
+        <v>77470.766199999998</v>
+      </c>
+      <c r="P11" s="20">
+        <v>13.2382906001097</v>
+      </c>
+      <c r="R11" s="20">
+        <v>9</v>
+      </c>
+      <c r="S11" s="20">
+        <v>64493.147599999997</v>
+      </c>
+      <c r="T11" s="20">
+        <v>13.2382940086478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1183,8 +1357,26 @@
         <v>19.403896100914199</v>
       </c>
       <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="20">
+        <v>10</v>
+      </c>
+      <c r="O12" s="20">
+        <v>77791.547900000005</v>
+      </c>
+      <c r="P12" s="20">
+        <v>13.2382901797146</v>
+      </c>
+      <c r="R12" s="20">
+        <v>10</v>
+      </c>
+      <c r="S12" s="20">
+        <v>65339.553</v>
+      </c>
+      <c r="T12" s="20">
+        <v>13.238293047307099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1222,8 +1414,26 @@
         <v>19.4038959706259</v>
       </c>
       <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="20">
+        <v>11</v>
+      </c>
+      <c r="O13" s="20">
+        <v>78193.342499999999</v>
+      </c>
+      <c r="P13" s="20">
+        <v>13.238290204269999</v>
+      </c>
+      <c r="R13" s="20">
+        <v>11</v>
+      </c>
+      <c r="S13" s="20">
+        <v>66566.104800000001</v>
+      </c>
+      <c r="T13" s="20">
+        <v>13.2382934606423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1261,8 +1471,26 @@
         <v>19.403896055038398</v>
       </c>
       <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N14" s="20">
+        <v>12</v>
+      </c>
+      <c r="O14" s="20">
+        <v>76801.1774</v>
+      </c>
+      <c r="P14" s="20">
+        <v>13.238290046041</v>
+      </c>
+      <c r="R14" s="20">
+        <v>12</v>
+      </c>
+      <c r="S14" s="20">
+        <v>63467.145499999999</v>
+      </c>
+      <c r="T14" s="20">
+        <v>13.2382934063679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1301,7 +1529,7 @@
       </c>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
